--- a/biology/Médecine/Syndrome_de_Klippel-Feil/Syndrome_de_Klippel-Feil.xlsx
+++ b/biology/Médecine/Syndrome_de_Klippel-Feil/Syndrome_de_Klippel-Feil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome de Klippel-Feil ou SKF (en anglais, Klippel-Feil syndrome ou KFS) est caractérisé par un défaut de segmentation des somites cervicaux, résultant en une fusion congénitale de vertèbres cervicales. 
-La prévalence est estimée à 1 sur 50 000. Décrit pour la première fois en 1912 par Maurice Klippel et André Feil en France[1], il est volontiers associé à la triade clinique classique : implantation postérieure basse des cheveux, un cou court, et une amplitude limitée des mouvements du cou.
-En 1919, André Feil propose une seconde classification du syndrome prenant cette fois en compte des malformations non seulement au niveau cervical mais aussi thoracique et lombaire[2].
+La prévalence est estimée à 1 sur 50 000. Décrit pour la première fois en 1912 par Maurice Klippel et André Feil en France, il est volontiers associé à la triade clinique classique : implantation postérieure basse des cheveux, un cou court, et une amplitude limitée des mouvements du cou.
+En 1919, André Feil propose une seconde classification du syndrome prenant cette fois en compte des malformations non seulement au niveau cervical mais aussi thoracique et lombaire.
 Aujourd'hui, n'importe quelle fusion congénitale d'au moins deux vertèbres est considérée comme une manifestation du syndrome de Klippel-Feil.
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Transmission autosomique dominante, plus particulièrement en cas de fusion C2-C3.
 Transmission autosomique récessive, surtout en cas de fusion C5-C6.</t>
@@ -545,7 +559,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il y aurait absence de segmentation cervicale dans les stades précoces de la grossesse, d'étiologie exacte et de mode de transmission encore inconnus en 2009. 
 </t>
@@ -576,7 +592,9 @@
           <t>Clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La triade classique inclurait une implantation postérieure basse des cheveux, un cou court et une amplitude limitée des mouvements du cou.
 Parmi les anomalies associées, citons :
@@ -595,7 +613,7 @@
 membres,
 membres inférieurs,
 et doigts.
-En 2011, une étude recensant en détail l'occurrence des symptômes de 100 personnes atteintes a été publiée[3].
+En 2011, une étude recensant en détail l'occurrence des symptômes de 100 personnes atteintes a été publiée.
 </t>
         </is>
       </c>
@@ -624,14 +642,16 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Une classification est proposée indépendamment dès 1919 par André Feil et Maurice Klippel. Ils ont décrit des patients avec un pterygium colli, une réduction de la gamme de mouvement dans la colonne cérébrale et une base des cheveux anormalement basse. Feil par la suite a proposé une classification du syndrome dans trois catégories:
 Type 1 - Fusion de C2 et C3 avec occipitilisation de l'atlas. McRae en 1953 a complété la définition du Type 1.
-Type 2 - Longue fusion en dessous de C2 avec une jonction anormale occipito-cervical. Le problème dans ce cas peut se situer au niveau thoracique. Il s'agit de la forme la plus répandue du syndrome[4].
+Type 2 - Longue fusion en dessous de C2 avec une jonction anormale occipito-cervical. Le problème dans ce cas peut se situer au niveau thoracique. Il s'agit de la forme la plus répandue du syndrome.
 Type 3 - Une ouverture de l'espace situé entre deux sections vertébrale fusionnée. Le type 3 peut être aisément distingué des type 1 et 2, par la présence d'une inflexion au niveau du segment ouvert.
-Le symptôme de Klippel-Feil peut aussi se manifester par malformations de la colonne cervicale, thoracique, ou lombaire[2].
-En 2006 Dino Samartzis et ses collaborateurs proposent trois modes de classification traitant surtout des anomalies du rachis cervical et de symptômes en rapport, en tenant compte de facteurs liés à l’évolution dans la durée[5].
+Le symptôme de Klippel-Feil peut aussi se manifester par malformations de la colonne cervicale, thoracique, ou lombaire.
+En 2006 Dino Samartzis et ses collaborateurs proposent trois modes de classification traitant surtout des anomalies du rachis cervical et de symptômes en rapport, en tenant compte de facteurs liés à l’évolution dans la durée.
 </t>
         </is>
       </c>
@@ -660,7 +680,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Symptomatique, la chirurgie se « limitant » à prendre en charge l’instabilité cervicale ou cranio-cervicale et/ou la souffrance par constriction de la moelle épinière et/ou la correction de la  scoliose. Physio- et kinésithérapie peuvent s’avérer utiles.
 </t>
@@ -691,7 +713,9 @@
           <t>Pronostic</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hétérogénéité, la disparité et la faible prévalence du syndrome de Klippel-Feil rendent difficiles son diagnostic ainsi que le prognostique. Pour ces raisons, la compréhension des causes du syndrome est limitée.
 Pour la grande majorité des sujets porteurs de SKF, le pronostic est bon pour une affection prise en charge tôt et correctement.
@@ -725,11 +749,13 @@
           <t>Observations remarquables</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Un cas d'un enfant atteint de Klippel-Feil datant entre 4500 et 4000 ans avant Jésus-Christ a été rencensé[6].
-Le pharaon Toutânkhamon de la  XVIIIe dynastie égyptienne aurait souffert du SKF[7].
-Le joueur de cricket anglais Gladstone Small serait un autre cas plus récent[8].</t>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Un cas d'un enfant atteint de Klippel-Feil datant entre 4500 et 4000 ans avant Jésus-Christ a été rencensé.
+Le pharaon Toutânkhamon de la  XVIIIe dynastie égyptienne aurait souffert du SKF.
+Le joueur de cricket anglais Gladstone Small serait un autre cas plus récent.</t>
         </is>
       </c>
     </row>
